--- a/Video.xlsx
+++ b/Video.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamirsangey/Documents/Hackathon2024/Mind-Check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4ADC2A9-DC47-8942-92A0-0AA092E943CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E709F-A815-834E-B2FC-7CF414EF91CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{9358EA26-FEF1-0E47-B86F-851474A1B03A}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Video.xlsx
+++ b/Video.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamirsangey/Documents/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Project\Mind-Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CAC086-5C92-9245-99B6-E80B7DE17A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20220" xr2:uid="{9358EA26-FEF1-0E47-B86F-851474A1B03A}"/>
+    <workbookView xWindow="0" yWindow="864" windowWidth="34200" windowHeight="20220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,9 +46,6 @@
     <t>Depression</t>
   </si>
   <si>
-    <t xml:space="preserve">Scuidal </t>
-  </si>
-  <si>
     <t>Stress</t>
   </si>
   <si>
@@ -147,13 +143,16 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>Suicidal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -528,191 +527,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BEB56F-A823-2C42-99BC-F094E75DEB9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="113" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{E6D47848-FCAE-0043-93D1-3E9FE2FF2073}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{6BE6CC85-1D8C-B84D-892D-C5A865C849BC}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{FE5D565B-5A85-AF4F-8D46-60ECEE36597B}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{3501A33F-CB42-C041-BF93-EEE380F47589}"/>
+    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Video.xlsx
+++ b/Video.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Project\Mind-Check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamirsangey/Documents/Hackathon2024/Mind-Check/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7029D8-728B-6D4B-AFFC-C2455BD3C413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="864" windowWidth="34200" windowHeight="20220"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -151,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,21 +517,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="113" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -552,7 +542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -563,7 +553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -574,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -585,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -596,7 +586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -607,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -618,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -629,7 +619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -640,7 +630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -651,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -662,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -673,7 +663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -684,7 +674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -695,7 +685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -708,10 +698,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
